--- a/regionseng/11/business sector/by ownership.xlsx
+++ b/regionseng/11/business sector/by ownership.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E1CD05-A7E7-4A23-A9B2-05D22629370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="105" windowWidth="14940" windowHeight="8010"/>
+    <workbookView xWindow="-105" yWindow="30" windowWidth="14790" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +47,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -163,10 +164,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -176,22 +177,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -282,6 +283,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -317,6 +335,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,11 +527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -506,20 +541,20 @@
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2006</v>
@@ -566,8 +601,14 @@
       <c r="P5" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -616,8 +657,14 @@
       <c r="P6" s="10">
         <v>1389.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="10">
+        <v>2031.6126205650539</v>
+      </c>
+      <c r="R6" s="10">
+        <v>2605.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -666,8 +713,14 @@
       <c r="P7" s="11">
         <v>1022.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="11">
+        <v>1576.0331858833174</v>
+      </c>
+      <c r="R7" s="11">
+        <v>2096.6999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -716,8 +769,14 @@
       <c r="P8" s="11">
         <v>366.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="11">
+        <v>455.11392430869722</v>
+      </c>
+      <c r="R8" s="11">
+        <v>506.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -766,19 +825,25 @@
       <c r="P9" s="11">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="11">
+        <v>0.46551037303949999</v>
+      </c>
+      <c r="R9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
         <v>2006</v>
@@ -825,8 +890,14 @@
       <c r="P13" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,8 +946,14 @@
       <c r="P14" s="10">
         <v>1225</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="10">
+        <v>1525.0214471089998</v>
+      </c>
+      <c r="R14" s="10">
+        <v>1968.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -925,8 +1002,14 @@
       <c r="P15" s="11">
         <v>813.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="11">
+        <v>1082.549366428</v>
+      </c>
+      <c r="R15" s="11">
+        <v>1477.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1058,14 @@
       <c r="P16" s="11">
         <v>410</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="11">
+        <v>440.784664308</v>
+      </c>
+      <c r="R16" s="11">
+        <v>485.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1025,19 +1114,25 @@
       <c r="P17" s="11">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="11">
+        <v>1.687416373</v>
+      </c>
+      <c r="R17" s="11">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4">
         <v>2006</v>
@@ -1084,8 +1179,14 @@
       <c r="P21" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1134,8 +1235,14 @@
       <c r="P22" s="12">
         <v>10806.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="12">
+        <v>12318.139669888003</v>
+      </c>
+      <c r="R22" s="12">
+        <v>13292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -1184,8 +1291,14 @@
       <c r="P23" s="13">
         <v>8554.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="13">
+        <v>10296.511550559</v>
+      </c>
+      <c r="R23" s="13">
+        <v>11411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -1234,8 +1347,14 @@
       <c r="P24" s="13">
         <v>2004.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="13">
+        <v>1697.9152027890002</v>
+      </c>
+      <c r="R24" s="13">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1284,11 +1403,17 @@
       <c r="P25" s="14">
         <v>248</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="14">
+        <v>323.71291653999998</v>
+      </c>
+      <c r="R25" s="14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1297,16 +1422,18 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4">
         <v>2006</v>
@@ -1353,8 +1480,14 @@
       <c r="P29" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1403,8 +1536,14 @@
       <c r="P30" s="10">
         <v>1275.4000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="10">
+        <v>1296</v>
+      </c>
+      <c r="R30" s="10">
+        <v>1562.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -1453,8 +1592,14 @@
       <c r="P31" s="11">
         <v>1192.0999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="11">
+        <v>1220.0999999999999</v>
+      </c>
+      <c r="R31" s="11">
+        <v>1454.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -1503,8 +1648,14 @@
       <c r="P32" s="11">
         <v>1671.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="11">
+        <v>1838.3</v>
+      </c>
+      <c r="R32" s="11">
+        <v>2360.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1552,6 +1703,12 @@
       </c>
       <c r="P33" s="11">
         <v>600.79999999999995</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>479.6</v>
+      </c>
+      <c r="R33" s="11">
+        <v>642.1</v>
       </c>
     </row>
   </sheetData>
